--- a/dai_tgg/file_import/tvcv_newst - Copy.xlsx
+++ b/dai_tgg/file_import/tvcv_newst - Copy.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dailtk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D4\duan\dai_tgg\file_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8194" tabRatio="987" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21268" windowHeight="8252" tabRatio="987"/>
   </bookViews>
   <sheets>
     <sheet name="Quản Lý" sheetId="1" r:id="rId1"/>
@@ -209,9 +209,6 @@
     <t>5% * tổng điểm của nhân viên trạm</t>
   </si>
   <si>
-    <t>Chấm cho trưởng trạm</t>
-  </si>
-  <si>
     <t>HCM.QL017</t>
   </si>
   <si>
@@ -279,9 +276,6 @@
   </si>
   <si>
     <t>Đi biệt phái</t>
-  </si>
-  <si>
-    <t>Cộng 300 điểm mỗi người tham gia/tháng</t>
   </si>
   <si>
     <t xml:space="preserve">   </t>
@@ -1510,6 +1504,12 @@
   </si>
   <si>
     <t>Xác định tọa độ, đặt cấu hình đo, đọc phân tích kết quả</t>
+  </si>
+  <si>
+    <t>Cộng 500 điểm mỗi người tham gia/tháng</t>
+  </si>
+  <si>
+    <t>Chấm cho trưởng trạm (Nếu trong tháng có làm việc cho nhóm có trưởng nhóm thì trưởng trạm 1%, Trưởng nhóm 4% điểm của người tham gia có được tại nhóm)</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1638,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1661,6 +1661,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFE7E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC00"/>
+        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1729,7 +1735,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="15" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2043,6 +2049,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2432,30 +2446,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C28" sqref="C28"/>
       <selection pane="topRight" activeCell="C28" sqref="C28"/>
       <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1"/>
+    <col min="1" max="1" width="6.81640625" style="1"/>
     <col min="2" max="2" width="17" style="1"/>
-    <col min="3" max="3" width="58.5703125" style="1"/>
-    <col min="4" max="4" width="14.28515625" style="1"/>
-    <col min="5" max="5" width="7.5" style="1"/>
-    <col min="6" max="6" width="15.28515625" style="1"/>
-    <col min="7" max="7" width="8.85546875" style="1"/>
-    <col min="8" max="8" width="14.85546875" style="2"/>
-    <col min="9" max="9" width="31.2109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="1"/>
-    <col min="11" max="1025" width="12.28515625" style="1"/>
+    <col min="3" max="3" width="58.54296875" style="1"/>
+    <col min="4" max="4" width="14.26953125" style="1"/>
+    <col min="5" max="5" width="7.453125" style="1"/>
+    <col min="6" max="6" width="15.26953125" style="1"/>
+    <col min="7" max="7" width="8.81640625" style="1"/>
+    <col min="8" max="8" width="14.81640625" style="2"/>
+    <col min="9" max="9" width="31.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.54296875" style="1"/>
+    <col min="11" max="1025" width="12.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -3481,7 +3495,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1024" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3508,7 +3522,7 @@
         <v>7</v>
       </c>
       <c r="J2" s="96" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K2"/>
       <c r="L2"/>
@@ -4525,7 +4539,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1024" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="7"/>
@@ -5551,7 +5565,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
@@ -6577,7 +6591,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -7620,7 +7634,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="24" customFormat="1" ht="30.9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1024" s="24" customFormat="1" ht="31.05" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>2</v>
       </c>
@@ -7650,7 +7664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>3</v>
       </c>
@@ -7680,10 +7694,10 @@
         <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>4</v>
       </c>
@@ -7713,10 +7727,10 @@
         <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>5</v>
       </c>
@@ -7746,10 +7760,10 @@
         <v>25</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>6</v>
       </c>
@@ -7779,10 +7793,10 @@
         <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
-    <row r="11" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -7812,7 +7826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -7842,7 +7856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -7870,7 +7884,7 @@
       </c>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="1:1024" ht="30.9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1024" ht="31.05" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>10</v>
       </c>
@@ -7900,7 +7914,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>11</v>
       </c>
@@ -7928,7 +7942,7 @@
       </c>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="1:1024" ht="30.9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1024" ht="31.05" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>12</v>
       </c>
@@ -7958,7 +7972,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="31.05" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>13</v>
       </c>
@@ -7986,7 +8000,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>14</v>
       </c>
@@ -8016,7 +8030,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="31.05" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>15</v>
       </c>
@@ -8046,7 +8060,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30.9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="77.55" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
         <v>16</v>
       </c>
@@ -8065,22 +8079,22 @@
       <c r="H20" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="32" t="s">
-        <v>59</v>
+      <c r="I20" s="110" t="s">
+        <v>480</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>17</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="D21" s="102" t="s">
         <v>61</v>
-      </c>
-      <c r="D21" s="102" t="s">
-        <v>62</v>
       </c>
       <c r="E21" s="102"/>
       <c r="F21" s="102"/>
@@ -8089,21 +8103,21 @@
         <v>30</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="27.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="35">
         <v>18</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="D22" s="103" t="s">
         <v>65</v>
-      </c>
-      <c r="D22" s="103" t="s">
-        <v>66</v>
       </c>
       <c r="E22" s="103"/>
       <c r="F22" s="103"/>
@@ -8112,21 +8126,21 @@
         <v>30</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="37">
         <v>19</v>
       </c>
       <c r="B23" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="D23" s="104" t="s">
         <v>69</v>
-      </c>
-      <c r="D23" s="104" t="s">
-        <v>70</v>
       </c>
       <c r="E23" s="104"/>
       <c r="F23" s="104"/>
@@ -8135,24 +8149,24 @@
         <v>30</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="42">
         <v>20</v>
       </c>
       <c r="B24" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="D24" s="103" t="s">
         <v>73</v>
-      </c>
-      <c r="D24" s="103" t="s">
-        <v>74</v>
       </c>
       <c r="E24" s="103"/>
       <c r="F24" s="103"/>
@@ -8161,21 +8175,21 @@
         <v>36</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="27.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="44">
         <v>21</v>
       </c>
       <c r="B25" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="D25" s="99" t="s">
         <v>77</v>
-      </c>
-      <c r="D25" s="99" t="s">
-        <v>78</v>
       </c>
       <c r="E25" s="99"/>
       <c r="F25" s="99"/>
@@ -8184,21 +8198,21 @@
         <v>36</v>
       </c>
       <c r="I25" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47">
         <v>22</v>
       </c>
       <c r="B26" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="49" t="s">
-        <v>81</v>
-      </c>
       <c r="D26" s="100" t="s">
-        <v>82</v>
+        <v>479</v>
       </c>
       <c r="E26" s="100"/>
       <c r="F26" s="100"/>
@@ -8208,18 +8222,18 @@
       </c>
       <c r="I26" s="47"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="15.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -8241,25 +8255,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A33" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.78515625" style="1"/>
-    <col min="2" max="2" width="20.5703125" style="1"/>
-    <col min="3" max="3" width="76.92578125" style="1"/>
-    <col min="4" max="4" width="15.140625" style="1"/>
-    <col min="5" max="5" width="7.5" style="1"/>
-    <col min="6" max="6" width="12.28515625" style="1"/>
-    <col min="7" max="7" width="8.5" style="1"/>
-    <col min="8" max="8" width="14.140625" style="1"/>
-    <col min="9" max="9" width="63.35546875" style="1"/>
-    <col min="10" max="1025" width="12.28515625" style="1"/>
+    <col min="1" max="1" width="4.81640625" style="1"/>
+    <col min="2" max="2" width="20.54296875" style="1"/>
+    <col min="3" max="3" width="76.90625" style="1"/>
+    <col min="4" max="4" width="15.1796875" style="1"/>
+    <col min="5" max="5" width="7.453125" style="1"/>
+    <col min="6" max="6" width="12.26953125" style="1"/>
+    <col min="7" max="7" width="8.453125" style="1"/>
+    <col min="8" max="8" width="14.1796875" style="1"/>
+    <col min="9" max="9" width="63.36328125" style="1"/>
+    <col min="10" max="1025" width="12.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -9285,7 +9299,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -10311,7 +10325,13 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="4" spans="1:1024" ht="45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="G3" s="107">
+        <f>SUM(G5:G66)</f>
+        <v>132.91666666666663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1024" ht="46.55" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -10338,10 +10358,10 @@
         <v>7</v>
       </c>
       <c r="J4" s="96" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K4" s="98" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L4"/>
       <c r="M4"/>
@@ -11357,18 +11377,18 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" ht="61.75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1024" ht="62.05" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="E5" s="14">
         <v>2</v>
@@ -11384,7 +11404,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -12402,18 +12422,18 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E6" s="14">
         <v>1</v>
@@ -12429,7 +12449,7 @@
         <v>11</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
@@ -13447,15 +13467,15 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" ht="30.9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1024" ht="31.05" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>4</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>14</v>
@@ -14492,18 +14512,18 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="24" customFormat="1" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1024" s="24" customFormat="1" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>5</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E8" s="55">
         <v>2</v>
@@ -14519,21 +14539,21 @@
         <v>11</v>
       </c>
       <c r="I8" s="59" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J8" s="60" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>6</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>14</v>
@@ -14552,19 +14572,19 @@
         <v>11</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>14</v>
@@ -14585,15 +14605,15 @@
       <c r="I10" s="18"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>9</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>14</v>
@@ -14614,18 +14634,18 @@
       <c r="I11" s="18"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:1024" ht="77.150000000000006" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1024" ht="77.55" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>10</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="E12" s="14">
         <v>2</v>
@@ -14641,25 +14661,25 @@
         <v>36</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J12"/>
       <c r="K12" s="97" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:1024" ht="77.150000000000006" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1024" ht="77.55" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>11</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E13" s="14">
         <v>2</v>
@@ -14675,25 +14695,25 @@
         <v>36</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J13"/>
       <c r="K13" s="97" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" ht="77.150000000000006" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1024" ht="77.55" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
         <v>12</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>111</v>
       </c>
       <c r="E14" s="14">
         <v>3</v>
@@ -14709,25 +14729,25 @@
         <v>36</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J14"/>
       <c r="K14" s="97" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:1024" ht="77.150000000000006" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1024" ht="77.55" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>13</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E15" s="14">
         <v>2</v>
@@ -14743,25 +14763,25 @@
         <v>36</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J15"/>
       <c r="K15" s="97" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:1024" ht="77.150000000000006" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1024" ht="77.55" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>14</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E16" s="14">
         <v>3</v>
@@ -14777,25 +14797,25 @@
         <v>36</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J16"/>
       <c r="K16" s="97" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="77.150000000000006" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="77.55" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>15</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E17" s="14">
         <v>3</v>
@@ -14811,25 +14831,25 @@
         <v>36</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J17"/>
       <c r="K17" s="97" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>16</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E18" s="14">
         <v>2</v>
@@ -14845,22 +14865,22 @@
         <v>36</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>17</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E19" s="14">
         <v>1</v>
@@ -14876,22 +14896,22 @@
         <v>36</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>18</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>126</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>128</v>
       </c>
       <c r="E20" s="14">
         <v>2</v>
@@ -14907,22 +14927,22 @@
         <v>36</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>19</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E21" s="14">
         <v>2</v>
@@ -14938,19 +14958,19 @@
         <v>36</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>14</v>
@@ -14973,15 +14993,15 @@
       </c>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>21</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>14</v>
@@ -15004,15 +15024,15 @@
       </c>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>22</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>14</v>
@@ -15035,18 +15055,18 @@
       </c>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>23</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E25" s="14">
         <v>2</v>
@@ -15064,15 +15084,15 @@
       <c r="I25" s="7"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>24</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>14</v>
@@ -15093,15 +15113,15 @@
       <c r="I26" s="7"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>25</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>51</v>
@@ -15120,19 +15140,19 @@
         <v>36</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>26</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>51</v>
@@ -15151,19 +15171,19 @@
         <v>36</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>28</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>14</v>
@@ -15184,18 +15204,18 @@
       <c r="I29" s="7"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:11" ht="30.9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="31.05" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>29</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E30" s="14">
         <v>5</v>
@@ -15211,22 +15231,22 @@
         <v>36</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J30" s="61"/>
     </row>
-    <row r="31" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>30</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E31" s="14">
         <v>4</v>
@@ -15244,18 +15264,18 @@
       <c r="I31" s="18"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>31</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E32" s="14">
         <v>3</v>
@@ -15273,15 +15293,15 @@
       <c r="I32" s="18"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>32</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>14</v>
@@ -15300,19 +15320,19 @@
         <v>36</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" ht="46.3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="46.55" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>33</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>14</v>
@@ -15331,19 +15351,19 @@
         <v>36</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" ht="30.9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="31.05" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>34</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>14</v>
@@ -15362,22 +15382,22 @@
         <v>36</v>
       </c>
       <c r="I35" s="62" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J35" s="61"/>
     </row>
-    <row r="36" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>35</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E36" s="14">
         <v>3</v>
@@ -15393,22 +15413,22 @@
         <v>36</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>36</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E37" s="14">
         <v>3</v>
@@ -15424,19 +15444,19 @@
         <v>36</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" ht="30.9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="31.05" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>37</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>51</v>
@@ -15455,19 +15475,19 @@
         <v>36</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J38" s="61"/>
     </row>
-    <row r="39" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>38</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>14</v>
@@ -15486,18 +15506,18 @@
         <v>36</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>39</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>14</v>
@@ -15516,18 +15536,18 @@
         <v>36</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>40</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>14</v>
@@ -15547,18 +15567,18 @@
       </c>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>41</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E42" s="14">
         <v>4</v>
@@ -15574,21 +15594,21 @@
         <v>36</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>42</v>
       </c>
       <c r="B43" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>186</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>188</v>
       </c>
       <c r="E43" s="14">
         <v>4</v>
@@ -15604,21 +15624,21 @@
         <v>36</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>43</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E44" s="14">
         <v>3</v>
@@ -15635,15 +15655,15 @@
       </c>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:10" ht="30.9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="31.05" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>44</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>14</v>
@@ -15662,21 +15682,21 @@
         <v>36</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>45</v>
       </c>
       <c r="B46" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>195</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>197</v>
       </c>
       <c r="E46" s="14">
         <v>3</v>
@@ -15693,15 +15713,15 @@
       </c>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>46</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>14</v>
@@ -15721,18 +15741,18 @@
       </c>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>47</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E48" s="14">
         <v>4</v>
@@ -15748,21 +15768,21 @@
         <v>36</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>48</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E49" s="14">
         <v>3</v>
@@ -15779,18 +15799,18 @@
       </c>
       <c r="I49" s="18"/>
     </row>
-    <row r="50" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>49</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E50" s="14">
         <v>3</v>
@@ -15807,18 +15827,18 @@
       </c>
       <c r="I50" s="18"/>
     </row>
-    <row r="51" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>50</v>
       </c>
       <c r="B51" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>207</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>209</v>
       </c>
       <c r="E51" s="14">
         <v>4</v>
@@ -15834,21 +15854,21 @@
         <v>36</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>51</v>
       </c>
       <c r="B52" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D52" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>213</v>
       </c>
       <c r="E52" s="14">
         <v>2</v>
@@ -15861,24 +15881,24 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="H52" s="54" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>52</v>
       </c>
       <c r="B53" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D53" s="14" t="s">
         <v>216</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>218</v>
       </c>
       <c r="E53" s="14">
         <v>3</v>
@@ -15891,24 +15911,24 @@
         <v>3</v>
       </c>
       <c r="H53" s="54" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>53</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E54" s="14">
         <v>1</v>
@@ -15921,21 +15941,21 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="H54" s="54" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>54</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>51</v>
@@ -15951,21 +15971,21 @@
         <v>3</v>
       </c>
       <c r="H55" s="54" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>55</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>51</v>
@@ -15981,24 +16001,24 @@
         <v>3</v>
       </c>
       <c r="H56" s="54" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>56</v>
       </c>
       <c r="B57" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="D57" s="14" t="s">
         <v>227</v>
-      </c>
-      <c r="C57" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>229</v>
       </c>
       <c r="E57" s="14">
         <v>1</v>
@@ -16015,18 +16035,18 @@
       </c>
       <c r="I57" s="7"/>
     </row>
-    <row r="58" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>57</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E58" s="14">
         <v>2</v>
@@ -16043,18 +16063,18 @@
       </c>
       <c r="I58" s="7"/>
     </row>
-    <row r="59" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>58</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E59" s="14">
         <v>4</v>
@@ -16070,21 +16090,21 @@
         <v>36</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" ht="16.100000000000001" x14ac:dyDescent="0.35">
       <c r="A60" s="14">
         <v>59</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C60" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E60" s="14">
         <v>2</v>
@@ -16100,21 +16120,21 @@
         <v>36</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>60</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E61" s="14">
         <v>3</v>
@@ -16130,21 +16150,21 @@
         <v>36</v>
       </c>
       <c r="I61" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>61</v>
       </c>
       <c r="B62" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="D62" s="14" t="s">
         <v>239</v>
-      </c>
-      <c r="C62" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>241</v>
       </c>
       <c r="E62" s="14">
         <v>3</v>
@@ -16161,18 +16181,18 @@
       </c>
       <c r="I62" s="7"/>
     </row>
-    <row r="63" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>62</v>
       </c>
       <c r="B63" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="D63" s="14" t="s">
         <v>242</v>
-      </c>
-      <c r="C63" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>244</v>
       </c>
       <c r="E63" s="14">
         <v>1</v>
@@ -16189,18 +16209,18 @@
       </c>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A64" s="14">
         <v>63</v>
       </c>
       <c r="B64" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D64" s="63" t="s">
         <v>245</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="D64" s="63" t="s">
-        <v>247</v>
       </c>
       <c r="E64" s="63">
         <v>4</v>
@@ -16217,18 +16237,18 @@
       </c>
       <c r="I64" s="63"/>
     </row>
-    <row r="65" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="31.05" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>64</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E65" s="14">
         <v>5</v>
@@ -16244,21 +16264,21 @@
         <v>36</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A66" s="42">
         <v>65</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C66" s="64" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D66" s="65" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E66" s="32">
         <v>3</v>
@@ -16289,21 +16309,21 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="1"/>
-    <col min="2" max="2" width="14.28515625" style="1"/>
+    <col min="1" max="1" width="4.453125" style="1"/>
+    <col min="2" max="2" width="14.26953125" style="1"/>
     <col min="3" max="3" width="77" style="1"/>
-    <col min="4" max="4" width="11.0703125" style="1"/>
-    <col min="5" max="5" width="7.35546875" style="1"/>
-    <col min="6" max="6" width="12.28515625" style="1"/>
-    <col min="7" max="7" width="7.28515625" style="1"/>
-    <col min="8" max="8" width="27.7109375" style="1"/>
-    <col min="9" max="9" width="75.78515625" style="1"/>
-    <col min="10" max="1025" width="12.28515625" style="1"/>
+    <col min="4" max="4" width="11.08984375" style="1"/>
+    <col min="5" max="5" width="7.36328125" style="1"/>
+    <col min="6" max="6" width="12.26953125" style="1"/>
+    <col min="7" max="7" width="7.26953125" style="1"/>
+    <col min="8" max="8" width="27.7265625" style="1"/>
+    <col min="9" max="9" width="75.81640625" style="1"/>
+    <col min="10" max="1025" width="12.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -16315,7 +16335,7 @@
       <c r="I1"/>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -16327,7 +16347,7 @@
       <c r="I2"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="46.55" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -16355,7 +16375,7 @@
       </c>
       <c r="J3" s="61"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -16366,15 +16386,15 @@
       <c r="H4"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A5" s="70">
         <v>1</v>
       </c>
       <c r="B5" s="70" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C5" s="71" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D5" s="61" t="s">
         <v>10</v>
@@ -16394,15 +16414,15 @@
       </c>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:10" ht="30.9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="31.05" x14ac:dyDescent="0.25">
       <c r="A6" s="70">
         <v>2</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C6" s="71" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D6" s="61" t="s">
         <v>14</v>
@@ -16422,15 +16442,15 @@
       </c>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A7" s="70">
         <v>3</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D7" s="61" t="s">
         <v>14</v>
@@ -16449,18 +16469,18 @@
         <v>18</v>
       </c>
       <c r="I7" s="70" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A8" s="70">
         <v>4</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D8" s="61" t="s">
         <v>14</v>
@@ -16476,19 +16496,19 @@
         <v>2</v>
       </c>
       <c r="H8" s="73" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A9" s="70">
         <v>5</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D9" s="61" t="s">
         <v>14</v>
@@ -16508,15 +16528,15 @@
       </c>
       <c r="I9"/>
     </row>
-    <row r="10" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A10" s="70">
         <v>6</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C10" s="71" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D10" s="61" t="s">
         <v>14</v>
@@ -16536,15 +16556,15 @@
       </c>
       <c r="I10"/>
     </row>
-    <row r="11" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A11" s="70">
         <v>7</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D11" s="61" t="s">
         <v>14</v>
@@ -16564,15 +16584,15 @@
       </c>
       <c r="I11"/>
     </row>
-    <row r="12" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A12" s="70">
         <v>8</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C12" s="71" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D12" s="61" t="s">
         <v>14</v>
@@ -16592,15 +16612,15 @@
       </c>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A13" s="70">
         <v>9</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D13" s="61" t="s">
         <v>14</v>
@@ -16620,15 +16640,15 @@
       </c>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70">
         <v>10</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C14" s="71" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D14" s="61" t="s">
         <v>14</v>
@@ -16648,15 +16668,15 @@
       </c>
       <c r="I14"/>
     </row>
-    <row r="15" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A15" s="70">
         <v>11</v>
       </c>
       <c r="B15" s="70" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C15" s="71" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D15" s="61" t="s">
         <v>14</v>
@@ -16676,15 +16696,15 @@
       </c>
       <c r="I15"/>
     </row>
-    <row r="16" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A16" s="70">
         <v>12</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D16" s="61" t="s">
         <v>14</v>
@@ -16704,18 +16724,18 @@
       </c>
       <c r="I16"/>
     </row>
-    <row r="17" spans="1:9" ht="30.9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="31.05" x14ac:dyDescent="0.25">
       <c r="A17" s="61">
         <v>13</v>
       </c>
       <c r="B17" s="61" t="s">
+        <v>277</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="D17" s="61" t="s">
         <v>279</v>
-      </c>
-      <c r="C17" s="71" t="s">
-        <v>280</v>
-      </c>
-      <c r="D17" s="61" t="s">
-        <v>281</v>
       </c>
       <c r="E17" s="61">
         <v>4</v>
@@ -16732,18 +16752,18 @@
       </c>
       <c r="I17"/>
     </row>
-    <row r="18" spans="1:9" ht="30.9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="31.05" x14ac:dyDescent="0.25">
       <c r="A18" s="61">
         <v>14</v>
       </c>
       <c r="B18" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D18" s="74" t="s">
         <v>282</v>
-      </c>
-      <c r="C18" s="71" t="s">
-        <v>283</v>
-      </c>
-      <c r="D18" s="74" t="s">
-        <v>284</v>
       </c>
       <c r="E18" s="61">
         <v>2</v>
@@ -16760,18 +16780,18 @@
       </c>
       <c r="I18"/>
     </row>
-    <row r="19" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="61">
         <v>15</v>
       </c>
       <c r="B19" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>284</v>
+      </c>
+      <c r="D19" s="61" t="s">
         <v>285</v>
-      </c>
-      <c r="C19" s="71" t="s">
-        <v>286</v>
-      </c>
-      <c r="D19" s="61" t="s">
-        <v>287</v>
       </c>
       <c r="E19" s="61">
         <v>2</v>
@@ -16788,18 +16808,18 @@
       </c>
       <c r="I19"/>
     </row>
-    <row r="20" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A20" s="61">
         <v>16</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C20" s="71" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E20" s="61">
         <v>2</v>
@@ -16816,18 +16836,18 @@
       </c>
       <c r="I20"/>
     </row>
-    <row r="21" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A21" s="61">
         <v>17</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C21" s="71" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E21" s="61">
         <v>2</v>
@@ -16844,18 +16864,18 @@
       </c>
       <c r="I21"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="75">
         <v>18</v>
       </c>
       <c r="B22" s="76" t="s">
+        <v>290</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>291</v>
+      </c>
+      <c r="D22" s="105" t="s">
         <v>292</v>
-      </c>
-      <c r="C22" s="77" t="s">
-        <v>293</v>
-      </c>
-      <c r="D22" s="105" t="s">
-        <v>294</v>
       </c>
       <c r="E22" s="105"/>
       <c r="F22" s="105"/>
@@ -16864,7 +16884,7 @@
         <v>36</v>
       </c>
       <c r="I22" s="79" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -16880,36 +16900,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK13"/>
   <sheetViews>
-    <sheetView zoomScale="53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="C1" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="1"/>
-    <col min="2" max="2" width="17.7109375" style="1"/>
-    <col min="3" max="3" width="76.92578125" style="2"/>
-    <col min="4" max="4" width="15.5" style="1"/>
-    <col min="5" max="5" width="7.28515625" style="1"/>
-    <col min="6" max="6" width="11.92578125" style="1"/>
-    <col min="7" max="7" width="7.5" style="1"/>
-    <col min="8" max="8" width="17.85546875" style="1"/>
-    <col min="9" max="9" width="57.0703125" style="1"/>
-    <col min="10" max="1025" width="12.28515625" style="1"/>
+    <col min="1" max="1" width="7.26953125" style="1"/>
+    <col min="2" max="2" width="17.7265625" style="1"/>
+    <col min="3" max="3" width="76.90625" style="2"/>
+    <col min="4" max="4" width="15.453125" style="1"/>
+    <col min="5" max="5" width="7.26953125" style="1"/>
+    <col min="6" max="6" width="11.90625" style="1"/>
+    <col min="7" max="7" width="7.453125" style="1"/>
+    <col min="8" max="8" width="17.81640625" style="1"/>
+    <col min="9" max="9" width="57.08984375" style="1"/>
+    <col min="10" max="1025" width="12.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
-      <c r="G1"/>
+      <c r="G1" s="108">
+        <f>SUM(G5:G13)</f>
+        <v>27.5</v>
+      </c>
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -16920,7 +16943,7 @@
       <c r="H2"/>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="46.55" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -16947,7 +16970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -16958,18 +16981,18 @@
       <c r="H4"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A5" s="61">
         <v>1</v>
       </c>
       <c r="B5" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>295</v>
+      </c>
+      <c r="D5" s="74" t="s">
         <v>296</v>
-      </c>
-      <c r="C5" s="74" t="s">
-        <v>297</v>
-      </c>
-      <c r="D5" s="74" t="s">
-        <v>298</v>
       </c>
       <c r="E5" s="61">
         <v>2</v>
@@ -16986,18 +17009,18 @@
       </c>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A6" s="61">
         <v>2</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E6" s="61">
         <v>3</v>
@@ -17014,18 +17037,18 @@
       </c>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A7" s="61">
         <v>3</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D7" s="74" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E7" s="61">
         <v>3</v>
@@ -17042,18 +17065,18 @@
       </c>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A8" s="61">
         <v>4</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C8" s="74" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D8" s="74" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E8" s="61">
         <v>3</v>
@@ -17066,22 +17089,22 @@
         <v>6</v>
       </c>
       <c r="H8" s="73" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A9" s="61">
         <v>5</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D9" s="74" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E9" s="61">
         <v>3</v>
@@ -17097,18 +17120,18 @@
         <v>36</v>
       </c>
       <c r="I9" s="61" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A10" s="61">
         <v>6</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D10" s="74" t="s">
         <v>51</v>
@@ -17127,15 +17150,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A11" s="61">
         <v>7</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C11" s="80" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D11" s="61" t="s">
         <v>14</v>
@@ -17154,15 +17177,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A12" s="61">
         <v>8</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D12" s="61" t="s">
         <v>14</v>
@@ -17181,15 +17204,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A13" s="61">
         <v>9</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C13" s="80" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D13" s="61" t="s">
         <v>14</v>
@@ -17218,25 +17241,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK25"/>
   <sheetViews>
-    <sheetView zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="C14" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.2109375" style="1"/>
-    <col min="2" max="2" width="20.2109375" style="1"/>
-    <col min="3" max="3" width="71.5" style="2"/>
-    <col min="4" max="4" width="7.7109375" style="1"/>
-    <col min="5" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="9.0703125" style="1"/>
-    <col min="7" max="7" width="7.85546875" style="1"/>
-    <col min="8" max="8" width="14.640625" style="1"/>
-    <col min="9" max="9" width="57.0703125" style="1"/>
-    <col min="10" max="1025" width="12.28515625" style="1"/>
+    <col min="1" max="1" width="4.1796875" style="1"/>
+    <col min="2" max="2" width="20.1796875" style="1"/>
+    <col min="3" max="3" width="71.453125" style="2"/>
+    <col min="4" max="4" width="7.7265625" style="1"/>
+    <col min="5" max="5" width="11.453125" style="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="7.81640625" style="1"/>
+    <col min="8" max="8" width="14.6328125" style="1"/>
+    <col min="9" max="9" width="57.08984375" style="1"/>
+    <col min="10" max="1025" width="12.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -17247,18 +17270,21 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
-      <c r="G2"/>
+      <c r="G2" s="109">
+        <f>SUM(G6:G23)</f>
+        <v>46</v>
+      </c>
       <c r="H2"/>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="62.05" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -17285,7 +17311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -17296,7 +17322,7 @@
       <c r="H4"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -17307,15 +17333,15 @@
       <c r="H5" s="73"/>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A6" s="61">
         <v>1</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>51</v>
@@ -17334,18 +17360,18 @@
         <v>36</v>
       </c>
       <c r="I6" s="82" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30.9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="31.05" x14ac:dyDescent="0.25">
       <c r="A7" s="61">
         <v>2</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>14</v>
@@ -17364,18 +17390,18 @@
         <v>36</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="46.3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="46.55" x14ac:dyDescent="0.25">
       <c r="A8" s="61">
         <v>3</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>14</v>
@@ -17394,18 +17420,18 @@
         <v>36</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="61.75" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="62.05" x14ac:dyDescent="0.25">
       <c r="A9" s="61">
         <v>4</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>14</v>
@@ -17424,18 +17450,18 @@
         <v>36</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30.9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="31.05" x14ac:dyDescent="0.25">
       <c r="A10" s="61">
         <v>5</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>14</v>
@@ -17454,18 +17480,18 @@
         <v>36</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61">
         <v>6</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>51</v>
@@ -17481,21 +17507,21 @@
         <v>3</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="46.3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="46.55" x14ac:dyDescent="0.25">
       <c r="A12" s="61">
         <v>7</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>14</v>
@@ -17514,18 +17540,18 @@
         <v>36</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="61.75" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="62.05" x14ac:dyDescent="0.25">
       <c r="A13" s="61">
         <v>8</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>14</v>
@@ -17544,18 +17570,18 @@
         <v>36</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="46.3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="46.55" x14ac:dyDescent="0.25">
       <c r="A14" s="61">
         <v>9</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>14</v>
@@ -17574,18 +17600,18 @@
         <v>36</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="61.75" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="62.05" x14ac:dyDescent="0.25">
       <c r="A15" s="61">
         <v>10</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>51</v>
@@ -17601,21 +17627,21 @@
         <v>2</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="61">
         <v>11</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>14</v>
@@ -17634,18 +17660,18 @@
         <v>36</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="61.75" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="62.05" x14ac:dyDescent="0.25">
       <c r="A17" s="61">
         <v>12</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>14</v>
@@ -17661,21 +17687,21 @@
         <v>5</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="61.75" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="62.05" x14ac:dyDescent="0.25">
       <c r="A18" s="61">
         <v>13</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>51</v>
@@ -17691,21 +17717,21 @@
         <v>4</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="77.55" x14ac:dyDescent="0.25">
       <c r="A19" s="61">
         <v>14</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>51</v>
@@ -17721,21 +17747,21 @@
         <v>2</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="46.3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="46.55" x14ac:dyDescent="0.25">
       <c r="A20" s="61">
         <v>15</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>14</v>
@@ -17754,18 +17780,18 @@
         <v>36</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="61.75" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="62.05" x14ac:dyDescent="0.25">
       <c r="A21" s="61">
         <v>16</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>51</v>
@@ -17784,18 +17810,18 @@
         <v>36</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30.9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="31.05" x14ac:dyDescent="0.25">
       <c r="A22" s="61">
         <v>17</v>
       </c>
       <c r="B22" s="84" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C22" s="85" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D22" s="86" t="s">
         <v>51</v>
@@ -17814,18 +17840,18 @@
         <v>36</v>
       </c>
       <c r="I22" s="85" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>18</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>14</v>
@@ -17845,18 +17871,18 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="77.150000000000006" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="77.55" x14ac:dyDescent="0.25">
       <c r="A24" s="61">
         <v>19</v>
       </c>
       <c r="B24" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="D24" s="86" t="s">
         <v>369</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="D24" s="86" t="s">
-        <v>371</v>
       </c>
       <c r="E24" s="86">
         <v>1</v>
@@ -17869,24 +17895,24 @@
         <v>0</v>
       </c>
       <c r="H24" s="86" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>20</v>
       </c>
       <c r="B25" s="88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C25" s="89" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D25" s="103" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E25" s="103"/>
       <c r="F25" s="103"/>
@@ -17895,7 +17921,7 @@
         <v>36</v>
       </c>
       <c r="I25" s="90" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -17915,19 +17941,19 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="1"/>
-    <col min="2" max="2" width="16.2109375" style="1"/>
-    <col min="3" max="3" width="72.5703125" style="2"/>
-    <col min="4" max="4" width="15.5" style="1"/>
-    <col min="5" max="7" width="12.28515625" style="1"/>
-    <col min="8" max="8" width="27.42578125" style="1"/>
-    <col min="9" max="9" width="57.0703125" style="1"/>
-    <col min="10" max="1025" width="12.28515625" style="1"/>
+    <col min="1" max="1" width="12.26953125" style="1"/>
+    <col min="2" max="2" width="16.1796875" style="1"/>
+    <col min="3" max="3" width="72.54296875" style="2"/>
+    <col min="4" max="4" width="15.453125" style="1"/>
+    <col min="5" max="7" width="12.26953125" style="1"/>
+    <col min="8" max="8" width="27.453125" style="1"/>
+    <col min="9" max="9" width="57.08984375" style="1"/>
+    <col min="10" max="1025" width="12.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -17939,7 +17965,7 @@
       <c r="I1"/>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -17951,7 +17977,7 @@
       <c r="I2"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="31.05" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -17979,7 +18005,7 @@
       </c>
       <c r="J3" s="61"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -17990,15 +18016,15 @@
       <c r="H4"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A5" s="91">
         <v>1</v>
       </c>
       <c r="B5" s="91" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D5" s="61" t="s">
         <v>14</v>
@@ -18018,15 +18044,15 @@
       </c>
       <c r="I5" s="61"/>
     </row>
-    <row r="6" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A6" s="91">
         <v>2</v>
       </c>
       <c r="B6" s="91" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D6" s="61" t="s">
         <v>14</v>
@@ -18046,15 +18072,15 @@
       </c>
       <c r="I6" s="61"/>
     </row>
-    <row r="7" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A7" s="91">
         <v>3</v>
       </c>
       <c r="B7" s="91" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D7" s="61" t="s">
         <v>14</v>
@@ -18074,15 +18100,15 @@
       </c>
       <c r="I7" s="61"/>
     </row>
-    <row r="8" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A8" s="91">
         <v>4</v>
       </c>
       <c r="B8" s="91" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C8" s="74" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D8" s="61" t="s">
         <v>14</v>
@@ -18102,18 +18128,18 @@
       </c>
       <c r="I8" s="61"/>
     </row>
-    <row r="9" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A9" s="91">
         <v>5</v>
       </c>
       <c r="B9" s="91" t="s">
+        <v>382</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>383</v>
+      </c>
+      <c r="D9" s="61" t="s">
         <v>384</v>
-      </c>
-      <c r="C9" s="74" t="s">
-        <v>385</v>
-      </c>
-      <c r="D9" s="61" t="s">
-        <v>386</v>
       </c>
       <c r="E9" s="61">
         <v>3</v>
@@ -18126,22 +18152,22 @@
         <v>3</v>
       </c>
       <c r="H9" s="73" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I9" s="61"/>
     </row>
-    <row r="10" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A10" s="91">
         <v>6</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E10" s="61">
         <v>2</v>
@@ -18160,18 +18186,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A11" s="91">
         <v>7</v>
       </c>
       <c r="B11" s="91" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E11" s="61">
         <v>2</v>
@@ -18190,18 +18216,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A12" s="91">
         <v>8</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E12" s="61">
         <v>2</v>
@@ -18220,15 +18246,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A13" s="91">
         <v>9</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D13" s="61" t="s">
         <v>14</v>
@@ -18248,15 +18274,15 @@
       </c>
       <c r="I13" s="61"/>
     </row>
-    <row r="14" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A14" s="91">
         <v>10</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D14" s="61" t="s">
         <v>14</v>
@@ -18272,21 +18298,21 @@
         <v>3</v>
       </c>
       <c r="H14" s="73" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I14" s="61" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A15" s="91">
         <v>11</v>
       </c>
       <c r="B15" s="91" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D15" s="61" t="s">
         <v>14</v>
@@ -18302,19 +18328,19 @@
         <v>2</v>
       </c>
       <c r="H15" s="73" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I15" s="61"/>
     </row>
-    <row r="16" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="91">
         <v>12</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D16" s="61" t="s">
         <v>14</v>
@@ -18334,15 +18360,15 @@
       </c>
       <c r="I16" s="61"/>
     </row>
-    <row r="17" spans="1:9" ht="30.9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="31.05" x14ac:dyDescent="0.25">
       <c r="A17" s="91">
         <v>13</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C17" s="92" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D17" s="61" t="s">
         <v>14</v>
@@ -18362,15 +18388,15 @@
       </c>
       <c r="I17" s="61"/>
     </row>
-    <row r="18" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A18" s="91">
         <v>14</v>
       </c>
       <c r="B18" s="91" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D18" s="61" t="s">
         <v>51</v>
@@ -18389,18 +18415,18 @@
         <v>48</v>
       </c>
       <c r="I18" s="61" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A19" s="91">
         <v>15</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D19" s="61" t="s">
         <v>51</v>
@@ -18419,18 +18445,18 @@
         <v>36</v>
       </c>
       <c r="I19" s="61" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A20" s="91">
         <v>16</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C20" s="74" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D20" s="61" t="s">
         <v>14</v>
@@ -18446,7 +18472,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="61" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I20" s="61"/>
     </row>
@@ -18464,21 +18490,21 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="1"/>
-    <col min="2" max="2" width="14.85546875" style="1"/>
-    <col min="3" max="3" width="64.140625" style="2"/>
-    <col min="4" max="4" width="13.42578125" style="1"/>
-    <col min="5" max="5" width="7.28515625" style="1"/>
-    <col min="6" max="6" width="10.5703125" style="1"/>
-    <col min="7" max="7" width="11.42578125" style="1"/>
-    <col min="8" max="8" width="11.2109375" style="1"/>
-    <col min="9" max="9" width="60.42578125" style="1"/>
-    <col min="10" max="1025" width="12.28515625" style="1"/>
+    <col min="1" max="1" width="4.453125" style="1"/>
+    <col min="2" max="2" width="14.81640625" style="1"/>
+    <col min="3" max="3" width="64.1796875" style="2"/>
+    <col min="4" max="4" width="13.453125" style="1"/>
+    <col min="5" max="5" width="7.26953125" style="1"/>
+    <col min="6" max="6" width="10.54296875" style="1"/>
+    <col min="7" max="7" width="11.453125" style="1"/>
+    <col min="8" max="8" width="11.1796875" style="1"/>
+    <col min="9" max="9" width="60.453125" style="1"/>
+    <col min="10" max="1025" width="12.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -19504,7 +19530,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -20530,7 +20556,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" ht="45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1024" ht="46.55" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -21572,7 +21598,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -22598,7 +22624,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -23624,15 +23650,15 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A6" s="61">
         <v>1</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D6" s="61" t="s">
         <v>14</v>
@@ -24665,15 +24691,15 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A7" s="61">
         <v>2</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D7" s="61" t="s">
         <v>10</v>
@@ -24690,7 +24716,7 @@
       </c>
       <c r="H7" s="72"/>
       <c r="I7" s="74" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -25708,15 +25734,15 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A8" s="61">
         <v>3</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C8" s="74" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D8" s="61" t="s">
         <v>51</v>
@@ -25733,7 +25759,7 @@
       </c>
       <c r="H8" s="72"/>
       <c r="I8" s="61" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
@@ -26751,15 +26777,15 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A9" s="61">
         <v>4</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D9" s="61" t="s">
         <v>14</v>
@@ -26776,7 +26802,7 @@
       </c>
       <c r="H9" s="72"/>
       <c r="I9" s="61" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
@@ -27794,15 +27820,15 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A10" s="61">
         <v>5</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D10" s="61" t="s">
         <v>14</v>
@@ -27819,7 +27845,7 @@
       </c>
       <c r="H10" s="72"/>
       <c r="I10" s="61" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
@@ -28837,15 +28863,15 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A11" s="61">
         <v>6</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D11" s="61" t="s">
         <v>14</v>
@@ -29878,15 +29904,15 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" ht="30.9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1024" ht="31.05" x14ac:dyDescent="0.25">
       <c r="A12" s="61">
         <v>7</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D12" s="61" t="s">
         <v>14</v>
@@ -30919,18 +30945,18 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A13" s="61">
         <v>8</v>
       </c>
       <c r="B13" s="61" t="s">
+        <v>426</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>427</v>
+      </c>
+      <c r="D13" s="61" t="s">
         <v>428</v>
-      </c>
-      <c r="C13" s="74" t="s">
-        <v>429</v>
-      </c>
-      <c r="D13" s="61" t="s">
-        <v>430</v>
       </c>
       <c r="E13" s="61">
         <v>3</v>
@@ -31960,15 +31986,15 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A14" s="61">
         <v>9</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D14" s="61" t="s">
         <v>51</v>
@@ -31985,7 +32011,7 @@
       </c>
       <c r="H14" s="72"/>
       <c r="I14" s="74" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
@@ -33003,15 +33029,15 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A15" s="61">
         <v>10</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D15" s="61" t="s">
         <v>51</v>
@@ -33028,7 +33054,7 @@
       </c>
       <c r="H15" s="72"/>
       <c r="I15" s="74" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
@@ -34046,15 +34072,15 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1024" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="61">
         <v>11</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D16" s="61" t="s">
         <v>51</v>
@@ -34071,7 +34097,7 @@
       </c>
       <c r="H16" s="72"/>
       <c r="I16" s="74" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
@@ -35089,15 +35115,15 @@
       <c r="AMI16"/>
       <c r="AMJ16"/>
     </row>
-    <row r="17" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A17" s="61">
         <v>12</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D17" s="61" t="s">
         <v>51</v>
@@ -35114,7 +35140,7 @@
       </c>
       <c r="H17" s="72"/>
       <c r="I17" s="74" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
@@ -36132,15 +36158,15 @@
       <c r="AMI17"/>
       <c r="AMJ17"/>
     </row>
-    <row r="18" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A18" s="61">
         <v>13</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D18" s="61" t="s">
         <v>51</v>
@@ -36157,7 +36183,7 @@
       </c>
       <c r="H18" s="72"/>
       <c r="I18" s="61" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
@@ -37175,15 +37201,15 @@
       <c r="AMI18"/>
       <c r="AMJ18"/>
     </row>
-    <row r="19" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A19" s="61">
         <v>14</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C19" s="74" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D19" s="61" t="s">
         <v>51</v>
@@ -37200,7 +37226,7 @@
       </c>
       <c r="H19" s="72"/>
       <c r="I19" s="74" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J19"/>
       <c r="K19"/>
@@ -38218,15 +38244,15 @@
       <c r="AMI19"/>
       <c r="AMJ19"/>
     </row>
-    <row r="20" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A20" s="61">
         <v>15</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C20" s="74" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D20" s="61" t="s">
         <v>14</v>
@@ -38243,7 +38269,7 @@
       </c>
       <c r="H20" s="72"/>
       <c r="I20" s="74" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
@@ -39261,15 +39287,15 @@
       <c r="AMI20"/>
       <c r="AMJ20"/>
     </row>
-    <row r="21" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A21" s="61">
         <v>16</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D21" s="61" t="s">
         <v>14</v>
@@ -39286,7 +39312,7 @@
       </c>
       <c r="H21" s="72"/>
       <c r="I21" s="74" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J21"/>
       <c r="K21"/>
@@ -40304,15 +40330,15 @@
       <c r="AMI21"/>
       <c r="AMJ21"/>
     </row>
-    <row r="22" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A22" s="61">
         <v>17</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C22" s="74" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D22" s="61" t="s">
         <v>14</v>
@@ -40329,7 +40355,7 @@
       </c>
       <c r="H22" s="72"/>
       <c r="I22" s="70" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
@@ -41347,15 +41373,15 @@
       <c r="AMI22"/>
       <c r="AMJ22"/>
     </row>
-    <row r="23" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A23" s="61">
         <v>18</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C23" s="74" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D23" s="70" t="s">
         <v>51</v>
@@ -41372,7 +41398,7 @@
       </c>
       <c r="H23" s="72"/>
       <c r="I23" s="70" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
@@ -42390,15 +42416,15 @@
       <c r="AMI23"/>
       <c r="AMJ23"/>
     </row>
-    <row r="24" spans="1:1024" s="13" customFormat="1" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1024" s="13" customFormat="1" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A24" s="61">
         <v>19</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C24" s="74" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D24" s="61" t="s">
         <v>51</v>
@@ -42415,18 +42441,18 @@
       </c>
       <c r="H24" s="72"/>
       <c r="I24" s="93" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
-    <row r="25" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A25" s="61">
         <v>20</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C25" s="74" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D25" s="61" t="s">
         <v>51</v>
@@ -42443,18 +42469,18 @@
       </c>
       <c r="H25" s="72"/>
       <c r="I25" s="61" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
-    <row r="26" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A26" s="61">
         <v>21</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D26" s="61" t="s">
         <v>14</v>
@@ -42471,18 +42497,18 @@
       </c>
       <c r="H26" s="72"/>
       <c r="I26" s="61" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
-    <row r="27" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A27" s="61">
         <v>22</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C27" s="74" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D27" s="61" t="s">
         <v>14</v>
@@ -42499,18 +42525,18 @@
       </c>
       <c r="H27" s="72"/>
       <c r="I27" s="61" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
-    <row r="28" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A28" s="61">
         <v>23</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C28" s="74" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D28" s="61" t="s">
         <v>14</v>
@@ -42527,18 +42553,18 @@
       </c>
       <c r="H28" s="72"/>
       <c r="I28" s="61" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
-    <row r="29" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A29" s="61">
         <v>24</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C29" s="74" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D29" s="61" t="s">
         <v>51</v>
@@ -42555,18 +42581,18 @@
       </c>
       <c r="H29" s="72"/>
       <c r="I29" s="61" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:1024" ht="15.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A30" s="61">
         <v>25</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C30" s="74" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D30" s="61" t="s">
         <v>14</v>
@@ -42584,18 +42610,18 @@
       <c r="H30" s="72"/>
       <c r="I30"/>
     </row>
-    <row r="31" spans="1:1024" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1024" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="61">
         <v>26</v>
       </c>
       <c r="B31" s="61" t="s">
+        <v>471</v>
+      </c>
+      <c r="C31" s="94" t="s">
+        <v>472</v>
+      </c>
+      <c r="D31" s="106" t="s">
         <v>473</v>
-      </c>
-      <c r="C31" s="94" t="s">
-        <v>474</v>
-      </c>
-      <c r="D31" s="106" t="s">
-        <v>475</v>
       </c>
       <c r="E31" s="106"/>
       <c r="F31" s="106"/>
@@ -42604,7 +42630,7 @@
         <v>30</v>
       </c>
       <c r="I31" s="74" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>

--- a/dai_tgg/file_import/tvcv_newst - Copy.xlsx
+++ b/dai_tgg/file_import/tvcv_newst - Copy.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21268" windowHeight="8252" tabRatio="987"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21268" windowHeight="8252" tabRatio="987" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Quản Lý" sheetId="1" r:id="rId1"/>
     <sheet name="Vận Hành" sheetId="2" r:id="rId2"/>
-    <sheet name="Văn Thư Hành Chính" sheetId="3" r:id="rId3"/>
-    <sheet name="Báo Cáo" sheetId="4" r:id="rId4"/>
-    <sheet name="VTTS" sheetId="5" r:id="rId5"/>
+    <sheet name="Báo Cáo" sheetId="4" r:id="rId3"/>
+    <sheet name="VTTS" sheetId="5" r:id="rId4"/>
+    <sheet name="Văn Thư Hành Chính" sheetId="3" r:id="rId5"/>
     <sheet name="ATVSLD" sheetId="6" r:id="rId6"/>
     <sheet name="Khác" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="483">
   <si>
     <t>STT</t>
   </si>
@@ -1497,9 +1497,6 @@
     <t>active</t>
   </si>
   <si>
-    <t>Các công việc con</t>
-  </si>
-  <si>
     <t>na</t>
   </si>
   <si>
@@ -1510,6 +1507,15 @@
   </si>
   <si>
     <t>Chấm cho trưởng trạm (Nếu trong tháng có làm việc cho nhóm có trưởng nhóm thì trưởng trạm 1%, Trưởng nhóm 4% điểm của người tham gia có được tại nhóm)</t>
+  </si>
+  <si>
+    <t>Các công việc con (bỏ từ dấu ngoặc để có import cv con)</t>
+  </si>
+  <si>
+    <t>công thức khác</t>
+  </si>
+  <si>
+    <t>HCM.VT20</t>
   </si>
 </sst>
 </file>
@@ -2045,9 +2051,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2057,6 +2060,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2446,12 +2452,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="A2" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C28" sqref="C28"/>
       <selection pane="topRight" activeCell="C28" sqref="C28"/>
       <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
@@ -3524,7 +3530,9 @@
       <c r="J2" s="96" t="s">
         <v>475</v>
       </c>
-      <c r="K2"/>
+      <c r="K2" s="98" t="s">
+        <v>481</v>
+      </c>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
@@ -7663,6 +7671,9 @@
       <c r="I6" s="23" t="s">
         <v>15</v>
       </c>
+      <c r="J6" s="24" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="7" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
@@ -7694,7 +7705,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
@@ -7727,7 +7738,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
@@ -7760,7 +7771,7 @@
         <v>25</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
@@ -7793,7 +7804,7 @@
         <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
@@ -7972,7 +7983,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="31.05" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>13</v>
       </c>
@@ -8000,7 +8011,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>14</v>
       </c>
@@ -8030,7 +8041,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="31.05" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>15</v>
       </c>
@@ -8060,7 +8071,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="77.55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="77.55" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
         <v>16</v>
       </c>
@@ -8075,15 +8086,20 @@
       </c>
       <c r="E20" s="101"/>
       <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
+      <c r="G20" s="101">
+        <v>0.05</v>
+      </c>
       <c r="H20" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="110" t="s">
-        <v>480</v>
+      <c r="I20" s="109" t="s">
+        <v>479</v>
+      </c>
+      <c r="K20" s="98" t="s">
+        <v>481</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="31.05" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>17</v>
       </c>
@@ -8098,15 +8114,20 @@
       </c>
       <c r="E21" s="102"/>
       <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
+      <c r="G21" s="102">
+        <v>1</v>
+      </c>
       <c r="H21" s="17" t="s">
         <v>30</v>
       </c>
       <c r="I21" s="14" t="s">
         <v>62</v>
       </c>
+      <c r="K21" s="98" t="s">
+        <v>481</v>
+      </c>
     </row>
-    <row r="22" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="27.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="35">
         <v>18</v>
       </c>
@@ -8121,15 +8142,20 @@
       </c>
       <c r="E22" s="103"/>
       <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
+      <c r="G22" s="103">
+        <v>100</v>
+      </c>
       <c r="H22" s="17" t="s">
         <v>30</v>
       </c>
       <c r="I22" s="18" t="s">
         <v>66</v>
       </c>
+      <c r="K22" s="98" t="s">
+        <v>481</v>
+      </c>
     </row>
-    <row r="23" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="37">
         <v>19</v>
       </c>
@@ -8144,7 +8170,9 @@
       </c>
       <c r="E23" s="104"/>
       <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
+      <c r="G23" s="104">
+        <v>100</v>
+      </c>
       <c r="H23" s="41" t="s">
         <v>30</v>
       </c>
@@ -8152,10 +8180,13 @@
         <v>70</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
+      </c>
+      <c r="K23" s="98" t="s">
+        <v>481</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="42">
         <v>20</v>
       </c>
@@ -8170,15 +8201,20 @@
       </c>
       <c r="E24" s="103"/>
       <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
+      <c r="G24" s="103">
+        <v>50</v>
+      </c>
       <c r="H24" s="18" t="s">
         <v>36</v>
       </c>
       <c r="I24" s="18" t="s">
         <v>74</v>
       </c>
+      <c r="K24" s="98" t="s">
+        <v>481</v>
+      </c>
     </row>
-    <row r="25" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="27.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="44">
         <v>21</v>
       </c>
@@ -8193,15 +8229,20 @@
       </c>
       <c r="E25" s="99"/>
       <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
+      <c r="G25" s="99">
+        <v>10</v>
+      </c>
       <c r="H25" s="34" t="s">
         <v>36</v>
       </c>
       <c r="I25" s="46" t="s">
         <v>78</v>
       </c>
+      <c r="K25" s="98" t="s">
+        <v>481</v>
+      </c>
     </row>
-    <row r="26" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47">
         <v>22</v>
       </c>
@@ -8212,40 +8253,36 @@
         <v>80</v>
       </c>
       <c r="D26" s="100" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E26" s="100"/>
       <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
+      <c r="G26" s="100">
+        <v>500</v>
+      </c>
       <c r="H26" s="50" t="s">
         <v>30</v>
       </c>
       <c r="I26" s="47"/>
+      <c r="K26" s="98" t="s">
+        <v>481</v>
+      </c>
     </row>
-    <row r="27" spans="1:10" ht="15.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.14375" bottom="1.14375" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -8255,8 +8292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK66"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A42" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
@@ -10326,12 +10363,12 @@
       <c r="AMJ2"/>
     </row>
     <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="G3" s="107">
+      <c r="G3" s="106">
         <f>SUM(G5:G66)</f>
         <v>132.91666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" ht="46.55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1024" ht="77.55" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -10361,7 +10398,7 @@
         <v>475</v>
       </c>
       <c r="K4" s="98" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="L4"/>
       <c r="M4"/>
@@ -14542,7 +14579,7 @@
         <v>93</v>
       </c>
       <c r="J8" s="60" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
@@ -14835,7 +14872,7 @@
       </c>
       <c r="J17"/>
       <c r="K17" s="97" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
@@ -16303,605 +16340,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK22"/>
-  <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.453125" style="1"/>
-    <col min="2" max="2" width="14.26953125" style="1"/>
-    <col min="3" max="3" width="77" style="1"/>
-    <col min="4" max="4" width="11.08984375" style="1"/>
-    <col min="5" max="5" width="7.36328125" style="1"/>
-    <col min="6" max="6" width="12.26953125" style="1"/>
-    <col min="7" max="7" width="7.26953125" style="1"/>
-    <col min="8" max="8" width="27.7265625" style="1"/>
-    <col min="9" max="9" width="75.81640625" style="1"/>
-    <col min="10" max="1025" width="12.26953125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1"/>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-    </row>
-    <row r="3" spans="1:10" ht="46.55" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="61"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A5" s="70">
-        <v>1</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>251</v>
-      </c>
-      <c r="C5" s="71" t="s">
-        <v>252</v>
-      </c>
-      <c r="D5" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="61">
-        <v>2</v>
-      </c>
-      <c r="F5" s="61">
-        <v>180</v>
-      </c>
-      <c r="G5" s="72">
-        <f>'Văn Thư Hành Chính'!F5*'Văn Thư Hành Chính'!E5/60</f>
-        <v>6</v>
-      </c>
-      <c r="H5" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5"/>
-    </row>
-    <row r="6" spans="1:10" ht="31.05" x14ac:dyDescent="0.25">
-      <c r="A6" s="70">
-        <v>2</v>
-      </c>
-      <c r="B6" s="70" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" s="71" t="s">
-        <v>254</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="61">
-        <v>2</v>
-      </c>
-      <c r="F6" s="61">
-        <v>40</v>
-      </c>
-      <c r="G6" s="72">
-        <f>'Văn Thư Hành Chính'!F6*'Văn Thư Hành Chính'!E6/60</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="H6" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A7" s="70">
-        <v>3</v>
-      </c>
-      <c r="B7" s="70" t="s">
-        <v>255</v>
-      </c>
-      <c r="C7" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="61">
-        <v>2</v>
-      </c>
-      <c r="F7" s="61">
-        <v>180</v>
-      </c>
-      <c r="G7" s="72">
-        <f>'Văn Thư Hành Chính'!F7*'Văn Thư Hành Chính'!E7/60</f>
-        <v>6</v>
-      </c>
-      <c r="H7" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="70" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A8" s="70">
-        <v>4</v>
-      </c>
-      <c r="B8" s="70" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" s="71" t="s">
-        <v>259</v>
-      </c>
-      <c r="D8" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="61">
-        <v>2</v>
-      </c>
-      <c r="F8" s="61">
-        <v>60</v>
-      </c>
-      <c r="G8" s="72">
-        <f>'Văn Thư Hành Chính'!F8*'Văn Thư Hành Chính'!E8/60</f>
-        <v>2</v>
-      </c>
-      <c r="H8" s="73" t="s">
-        <v>260</v>
-      </c>
-      <c r="I8"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A9" s="70">
-        <v>5</v>
-      </c>
-      <c r="B9" s="70" t="s">
-        <v>261</v>
-      </c>
-      <c r="C9" s="71" t="s">
-        <v>262</v>
-      </c>
-      <c r="D9" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="74">
-        <v>2</v>
-      </c>
-      <c r="F9" s="74">
-        <v>50</v>
-      </c>
-      <c r="G9" s="72">
-        <f>'Văn Thư Hành Chính'!F9*'Văn Thư Hành Chính'!E9/60</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="H9" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A10" s="70">
-        <v>6</v>
-      </c>
-      <c r="B10" s="70" t="s">
-        <v>263</v>
-      </c>
-      <c r="C10" s="71" t="s">
-        <v>264</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="61">
-        <v>1</v>
-      </c>
-      <c r="F10" s="61">
-        <v>40</v>
-      </c>
-      <c r="G10" s="72">
-        <f>'Văn Thư Hành Chính'!F10*'Văn Thư Hành Chính'!E10/60</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H10" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A11" s="70">
-        <v>7</v>
-      </c>
-      <c r="B11" s="70" t="s">
-        <v>265</v>
-      </c>
-      <c r="C11" s="71" t="s">
-        <v>266</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="61">
-        <v>1</v>
-      </c>
-      <c r="F11" s="61">
-        <v>40</v>
-      </c>
-      <c r="G11" s="72">
-        <f>'Văn Thư Hành Chính'!F11*'Văn Thư Hành Chính'!E11/60</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H11" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A12" s="70">
-        <v>8</v>
-      </c>
-      <c r="B12" s="70" t="s">
-        <v>267</v>
-      </c>
-      <c r="C12" s="71" t="s">
-        <v>268</v>
-      </c>
-      <c r="D12" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="61">
-        <v>2</v>
-      </c>
-      <c r="F12" s="61">
-        <v>150</v>
-      </c>
-      <c r="G12" s="72">
-        <f>'Văn Thư Hành Chính'!F12*'Văn Thư Hành Chính'!E12/60</f>
-        <v>5</v>
-      </c>
-      <c r="H12" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A13" s="70">
-        <v>9</v>
-      </c>
-      <c r="B13" s="70" t="s">
-        <v>269</v>
-      </c>
-      <c r="C13" s="71" t="s">
-        <v>270</v>
-      </c>
-      <c r="D13" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="61">
-        <v>2</v>
-      </c>
-      <c r="F13" s="61">
-        <v>30</v>
-      </c>
-      <c r="G13" s="72">
-        <f>'Văn Thư Hành Chính'!F13*'Văn Thư Hành Chính'!E13/60</f>
-        <v>1</v>
-      </c>
-      <c r="H13" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13"/>
-    </row>
-    <row r="14" spans="1:10" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="70">
-        <v>10</v>
-      </c>
-      <c r="B14" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="C14" s="71" t="s">
-        <v>272</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="61">
-        <v>3</v>
-      </c>
-      <c r="F14" s="61">
-        <v>60</v>
-      </c>
-      <c r="G14" s="72">
-        <f>'Văn Thư Hành Chính'!F14*'Văn Thư Hành Chính'!E14/60</f>
-        <v>3</v>
-      </c>
-      <c r="H14" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A15" s="70">
-        <v>11</v>
-      </c>
-      <c r="B15" s="70" t="s">
-        <v>273</v>
-      </c>
-      <c r="C15" s="71" t="s">
-        <v>274</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="61">
-        <v>2</v>
-      </c>
-      <c r="F15" s="61">
-        <v>30</v>
-      </c>
-      <c r="G15" s="72">
-        <f>'Văn Thư Hành Chính'!F15*'Văn Thư Hành Chính'!E15/60</f>
-        <v>1</v>
-      </c>
-      <c r="H15" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A16" s="70">
-        <v>12</v>
-      </c>
-      <c r="B16" s="70" t="s">
-        <v>275</v>
-      </c>
-      <c r="C16" s="71" t="s">
-        <v>276</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="61">
-        <v>1</v>
-      </c>
-      <c r="F16" s="61">
-        <v>60</v>
-      </c>
-      <c r="G16" s="72">
-        <f>'Văn Thư Hành Chính'!F16*'Văn Thư Hành Chính'!E16/60</f>
-        <v>1</v>
-      </c>
-      <c r="H16" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16"/>
-    </row>
-    <row r="17" spans="1:9" ht="31.05" x14ac:dyDescent="0.25">
-      <c r="A17" s="61">
-        <v>13</v>
-      </c>
-      <c r="B17" s="61" t="s">
-        <v>277</v>
-      </c>
-      <c r="C17" s="71" t="s">
-        <v>278</v>
-      </c>
-      <c r="D17" s="61" t="s">
-        <v>279</v>
-      </c>
-      <c r="E17" s="61">
-        <v>4</v>
-      </c>
-      <c r="F17" s="61">
-        <v>60</v>
-      </c>
-      <c r="G17" s="72">
-        <f>'Văn Thư Hành Chính'!F17*'Văn Thư Hành Chính'!E17/60</f>
-        <v>4</v>
-      </c>
-      <c r="H17" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17"/>
-    </row>
-    <row r="18" spans="1:9" ht="31.05" x14ac:dyDescent="0.25">
-      <c r="A18" s="61">
-        <v>14</v>
-      </c>
-      <c r="B18" s="61" t="s">
-        <v>280</v>
-      </c>
-      <c r="C18" s="71" t="s">
-        <v>281</v>
-      </c>
-      <c r="D18" s="74" t="s">
-        <v>282</v>
-      </c>
-      <c r="E18" s="61">
-        <v>2</v>
-      </c>
-      <c r="F18" s="61">
-        <v>60</v>
-      </c>
-      <c r="G18" s="72">
-        <f>'Văn Thư Hành Chính'!F18*'Văn Thư Hành Chính'!E18/60</f>
-        <v>2</v>
-      </c>
-      <c r="H18" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18"/>
-    </row>
-    <row r="19" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61">
-        <v>15</v>
-      </c>
-      <c r="B19" s="61" t="s">
-        <v>283</v>
-      </c>
-      <c r="C19" s="71" t="s">
-        <v>284</v>
-      </c>
-      <c r="D19" s="61" t="s">
-        <v>285</v>
-      </c>
-      <c r="E19" s="61">
-        <v>2</v>
-      </c>
-      <c r="F19" s="61">
-        <v>60</v>
-      </c>
-      <c r="G19" s="72">
-        <f>'Văn Thư Hành Chính'!F19*'Văn Thư Hành Chính'!E19/60</f>
-        <v>2</v>
-      </c>
-      <c r="H19" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A20" s="61">
-        <v>16</v>
-      </c>
-      <c r="B20" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="C20" s="71" t="s">
-        <v>287</v>
-      </c>
-      <c r="D20" s="61" t="s">
-        <v>285</v>
-      </c>
-      <c r="E20" s="61">
-        <v>2</v>
-      </c>
-      <c r="F20" s="61">
-        <v>30</v>
-      </c>
-      <c r="G20" s="72">
-        <f>'Văn Thư Hành Chính'!F20*'Văn Thư Hành Chính'!E20/60</f>
-        <v>1</v>
-      </c>
-      <c r="H20" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
-      <c r="A21" s="61">
-        <v>17</v>
-      </c>
-      <c r="B21" s="61" t="s">
-        <v>288</v>
-      </c>
-      <c r="C21" s="71" t="s">
-        <v>289</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>285</v>
-      </c>
-      <c r="E21" s="61">
-        <v>2</v>
-      </c>
-      <c r="F21" s="61">
-        <v>60</v>
-      </c>
-      <c r="G21" s="72">
-        <f>'Văn Thư Hành Chính'!F21*'Văn Thư Hành Chính'!E21/60</f>
-        <v>2</v>
-      </c>
-      <c r="H21" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="75">
-        <v>18</v>
-      </c>
-      <c r="B22" s="76" t="s">
-        <v>290</v>
-      </c>
-      <c r="C22" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="D22" s="105" t="s">
-        <v>292</v>
-      </c>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="79" t="s">
-        <v>293</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D22:G22"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="1.14375" bottom="1.14375" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="C4" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
@@ -16925,7 +16367,7 @@
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
-      <c r="G1" s="108">
+      <c r="G1" s="107">
         <f>SUM(G5:G13)</f>
         <v>27.5</v>
       </c>
@@ -17237,12 +16679,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK25"/>
   <sheetViews>
-    <sheetView topLeftCell="C14" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A18" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
@@ -17259,7 +16701,7 @@
     <col min="10" max="1025" width="12.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -17270,21 +16712,21 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
-      <c r="G2" s="109">
+      <c r="G2" s="108">
         <f>SUM(G6:G23)</f>
         <v>46</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:9" ht="62.05" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="46.55" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -17310,8 +16752,11 @@
       <c r="I3" s="68" t="s">
         <v>7</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>481</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -17322,7 +16767,7 @@
       <c r="H4"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -17333,7 +16778,7 @@
       <c r="H5" s="73"/>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A6" s="61">
         <v>1</v>
       </c>
@@ -17363,7 +16808,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="31.05" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="31.05" x14ac:dyDescent="0.25">
       <c r="A7" s="61">
         <v>2</v>
       </c>
@@ -17393,7 +16838,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="46.55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="46.55" x14ac:dyDescent="0.25">
       <c r="A8" s="61">
         <v>3</v>
       </c>
@@ -17423,7 +16868,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="62.05" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="62.05" x14ac:dyDescent="0.25">
       <c r="A9" s="61">
         <v>4</v>
       </c>
@@ -17453,7 +16898,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="31.05" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="31.05" x14ac:dyDescent="0.25">
       <c r="A10" s="61">
         <v>5</v>
       </c>
@@ -17483,7 +16928,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61">
         <v>6</v>
       </c>
@@ -17513,7 +16958,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="46.55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="46.55" x14ac:dyDescent="0.25">
       <c r="A12" s="61">
         <v>7</v>
       </c>
@@ -17543,7 +16988,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="62.05" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="62.05" x14ac:dyDescent="0.25">
       <c r="A13" s="61">
         <v>8</v>
       </c>
@@ -17573,7 +17018,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="46.55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="46.55" x14ac:dyDescent="0.25">
       <c r="A14" s="61">
         <v>9</v>
       </c>
@@ -17603,7 +17048,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="62.05" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="62.05" x14ac:dyDescent="0.25">
       <c r="A15" s="61">
         <v>10</v>
       </c>
@@ -17633,7 +17078,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="35.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="61">
         <v>11</v>
       </c>
@@ -17663,7 +17108,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="62.05" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="62.05" x14ac:dyDescent="0.25">
       <c r="A17" s="61">
         <v>12</v>
       </c>
@@ -17693,7 +17138,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="62.05" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="62.05" x14ac:dyDescent="0.25">
       <c r="A18" s="61">
         <v>13</v>
       </c>
@@ -17723,7 +17168,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="77.55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="77.55" x14ac:dyDescent="0.25">
       <c r="A19" s="61">
         <v>14</v>
       </c>
@@ -17753,7 +17198,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="46.55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="46.55" x14ac:dyDescent="0.25">
       <c r="A20" s="61">
         <v>15</v>
       </c>
@@ -17783,7 +17228,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="62.05" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="62.05" x14ac:dyDescent="0.25">
       <c r="A21" s="61">
         <v>16</v>
       </c>
@@ -17813,7 +17258,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="31.05" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="31.05" x14ac:dyDescent="0.25">
       <c r="A22" s="61">
         <v>17</v>
       </c>
@@ -17843,7 +17288,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>18</v>
       </c>
@@ -17871,7 +17316,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="77.55" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="77.55" x14ac:dyDescent="0.25">
       <c r="A24" s="61">
         <v>19</v>
       </c>
@@ -17891,8 +17336,7 @@
         <v>60</v>
       </c>
       <c r="G24" s="87">
-        <f>'Quản Lý'!F24*'Quản Lý'!E24/60</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="86" t="s">
         <v>341</v>
@@ -17901,12 +17345,12 @@
         <v>370</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+    <row r="25" spans="1:10" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="102">
         <v>20</v>
       </c>
       <c r="B25" s="88" t="s">
-        <v>290</v>
+        <v>482</v>
       </c>
       <c r="C25" s="89" t="s">
         <v>371</v>
@@ -17916,17 +17360,625 @@
       </c>
       <c r="E25" s="103"/>
       <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
+      <c r="G25" s="103">
+        <v>30</v>
+      </c>
       <c r="H25" s="54" t="s">
         <v>36</v>
       </c>
       <c r="I25" s="90" t="s">
         <v>373</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="1.14375" bottom="1.14375" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.453125" style="1"/>
+    <col min="2" max="2" width="14.26953125" style="1"/>
+    <col min="3" max="3" width="77" style="1"/>
+    <col min="4" max="4" width="11.08984375" style="1"/>
+    <col min="5" max="5" width="7.36328125" style="1"/>
+    <col min="6" max="6" width="12.26953125" style="1"/>
+    <col min="7" max="7" width="7.26953125" style="1"/>
+    <col min="8" max="8" width="27.7265625" style="1"/>
+    <col min="9" max="9" width="75.81640625" style="1"/>
+    <col min="10" max="1025" width="12.26953125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="1:11" ht="46.55" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="69"/>
+      <c r="I3" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="98" t="s">
+        <v>475</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+      <c r="A5" s="70">
+        <v>1</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="61">
+        <v>2</v>
+      </c>
+      <c r="F5" s="61">
+        <v>180</v>
+      </c>
+      <c r="G5" s="72">
+        <f>'Văn Thư Hành Chính'!F5*'Văn Thư Hành Chính'!E5/60</f>
+        <v>6</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:11" ht="31.05" x14ac:dyDescent="0.25">
+      <c r="A6" s="70">
+        <v>2</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="61">
+        <v>2</v>
+      </c>
+      <c r="F6" s="61">
+        <v>40</v>
+      </c>
+      <c r="G6" s="72">
+        <f>'Văn Thư Hành Chính'!F6*'Văn Thư Hành Chính'!E6/60</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="H6" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+      <c r="A7" s="70">
+        <v>3</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="61">
+        <v>2</v>
+      </c>
+      <c r="F7" s="61">
+        <v>180</v>
+      </c>
+      <c r="G7" s="72">
+        <f>'Văn Thư Hành Chính'!F7*'Văn Thư Hành Chính'!E7/60</f>
+        <v>6</v>
+      </c>
+      <c r="H7" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="70" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+      <c r="A8" s="70">
+        <v>4</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="61">
+        <v>2</v>
+      </c>
+      <c r="F8" s="61">
+        <v>60</v>
+      </c>
+      <c r="G8" s="72">
+        <f>'Văn Thư Hành Chính'!F8*'Văn Thư Hành Chính'!E8/60</f>
+        <v>2</v>
+      </c>
+      <c r="H8" s="73" t="s">
+        <v>260</v>
+      </c>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+      <c r="A9" s="70">
+        <v>5</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="74">
+        <v>2</v>
+      </c>
+      <c r="F9" s="74">
+        <v>50</v>
+      </c>
+      <c r="G9" s="72">
+        <f>'Văn Thư Hành Chính'!F9*'Văn Thư Hành Chính'!E9/60</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H9" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+      <c r="A10" s="70">
+        <v>6</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="61">
+        <v>1</v>
+      </c>
+      <c r="F10" s="61">
+        <v>40</v>
+      </c>
+      <c r="G10" s="72">
+        <f>'Văn Thư Hành Chính'!F10*'Văn Thư Hành Chính'!E10/60</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H10" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+      <c r="A11" s="70">
+        <v>7</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="61">
+        <v>1</v>
+      </c>
+      <c r="F11" s="61">
+        <v>40</v>
+      </c>
+      <c r="G11" s="72">
+        <f>'Văn Thư Hành Chính'!F11*'Văn Thư Hành Chính'!E11/60</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H11" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+      <c r="A12" s="70">
+        <v>8</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="61">
+        <v>2</v>
+      </c>
+      <c r="F12" s="61">
+        <v>150</v>
+      </c>
+      <c r="G12" s="72">
+        <f>'Văn Thư Hành Chính'!F12*'Văn Thư Hành Chính'!E12/60</f>
+        <v>5</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+      <c r="A13" s="70">
+        <v>9</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="61">
+        <v>2</v>
+      </c>
+      <c r="F13" s="61">
+        <v>30</v>
+      </c>
+      <c r="G13" s="72">
+        <f>'Văn Thư Hành Chính'!F13*'Văn Thư Hành Chính'!E13/60</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:11" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="70">
+        <v>10</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="61">
+        <v>3</v>
+      </c>
+      <c r="F14" s="61">
+        <v>60</v>
+      </c>
+      <c r="G14" s="72">
+        <f>'Văn Thư Hành Chính'!F14*'Văn Thư Hành Chính'!E14/60</f>
+        <v>3</v>
+      </c>
+      <c r="H14" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+      <c r="A15" s="70">
+        <v>11</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="61">
+        <v>2</v>
+      </c>
+      <c r="F15" s="61">
+        <v>30</v>
+      </c>
+      <c r="G15" s="72">
+        <f>'Văn Thư Hành Chính'!F15*'Văn Thư Hành Chính'!E15/60</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+      <c r="A16" s="70">
+        <v>12</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="61">
+        <v>1</v>
+      </c>
+      <c r="F16" s="61">
+        <v>60</v>
+      </c>
+      <c r="G16" s="72">
+        <f>'Văn Thư Hành Chính'!F16*'Văn Thư Hành Chính'!E16/60</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:11" ht="31.05" x14ac:dyDescent="0.25">
+      <c r="A17" s="61">
+        <v>13</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>277</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="E17" s="61">
+        <v>4</v>
+      </c>
+      <c r="F17" s="61">
+        <v>60</v>
+      </c>
+      <c r="G17" s="72">
+        <f>'Văn Thư Hành Chính'!F17*'Văn Thư Hành Chính'!E17/60</f>
+        <v>4</v>
+      </c>
+      <c r="H17" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:11" ht="31.05" x14ac:dyDescent="0.25">
+      <c r="A18" s="61">
+        <v>14</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="E18" s="61">
+        <v>2</v>
+      </c>
+      <c r="F18" s="61">
+        <v>60</v>
+      </c>
+      <c r="G18" s="72">
+        <f>'Văn Thư Hành Chính'!F18*'Văn Thư Hành Chính'!E18/60</f>
+        <v>2</v>
+      </c>
+      <c r="H18" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="61">
+        <v>15</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>284</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="E19" s="61">
+        <v>2</v>
+      </c>
+      <c r="F19" s="61">
+        <v>60</v>
+      </c>
+      <c r="G19" s="72">
+        <f>'Văn Thư Hành Chính'!F19*'Văn Thư Hành Chính'!E19/60</f>
+        <v>2</v>
+      </c>
+      <c r="H19" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+      <c r="A20" s="61">
+        <v>16</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="D20" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="E20" s="61">
+        <v>2</v>
+      </c>
+      <c r="F20" s="61">
+        <v>30</v>
+      </c>
+      <c r="G20" s="72">
+        <f>'Văn Thư Hành Chính'!F20*'Văn Thư Hành Chính'!E20/60</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+      <c r="A21" s="61">
+        <v>17</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>289</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="E21" s="61">
+        <v>2</v>
+      </c>
+      <c r="F21" s="61">
+        <v>60</v>
+      </c>
+      <c r="G21" s="72">
+        <f>'Văn Thư Hành Chính'!F21*'Văn Thư Hành Chính'!E21/60</f>
+        <v>2</v>
+      </c>
+      <c r="H21" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="1:11" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="75">
+        <v>18</v>
+      </c>
+      <c r="B22" s="76" t="s">
+        <v>290</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>291</v>
+      </c>
+      <c r="D22" s="110" t="s">
+        <v>292</v>
+      </c>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="79" t="s">
+        <v>293</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>481</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D22:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.14375" bottom="1.14375" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -17937,7 +17989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView topLeftCell="F6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -18486,8 +18538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK31"/>
   <sheetViews>
-    <sheetView topLeftCell="C59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
@@ -20582,7 +20634,9 @@
       <c r="I3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="J3"/>
+      <c r="J3" s="98" t="s">
+        <v>481</v>
+      </c>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -42620,23 +42674,25 @@
       <c r="C31" s="94" t="s">
         <v>472</v>
       </c>
-      <c r="D31" s="106" t="s">
+      <c r="D31" s="105" t="s">
         <v>473</v>
       </c>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105">
+        <v>1</v>
+      </c>
       <c r="H31" s="95" t="s">
         <v>30</v>
       </c>
       <c r="I31" s="74" t="s">
         <v>474</v>
       </c>
+      <c r="J31" s="98" t="s">
+        <v>481</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D31:G31"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.14375" bottom="1.14375" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/dai_tgg/file_import/tvcv_newst - Copy.xlsx
+++ b/dai_tgg/file_import/tvcv_newst - Copy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21268" windowHeight="8252" tabRatio="987" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21267" windowHeight="8253" tabRatio="987" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Quản Lý" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="vanhanh1">'Vận Hành'!$B$5:$B$11</definedName>
     <definedName name="Vanhanh2">'Vận Hành'!$C$5:$C$11</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -1509,13 +1509,13 @@
     <t>Chấm cho trưởng trạm (Nếu trong tháng có làm việc cho nhóm có trưởng nhóm thì trưởng trạm 1%, Trưởng nhóm 4% điểm của người tham gia có được tại nhóm)</t>
   </si>
   <si>
-    <t>Các công việc con (bỏ từ dấu ngoặc để có import cv con)</t>
-  </si>
-  <si>
     <t>công thức khác</t>
   </si>
   <si>
     <t>HCM.VT20</t>
+  </si>
+  <si>
+    <t>Các công việc con</t>
   </si>
 </sst>
 </file>
@@ -2460,7 +2460,7 @@
       <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.45" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.81640625" style="1"/>
     <col min="2" max="2" width="17" style="1"/>
@@ -3501,7 +3501,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1024" ht="48.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>475</v>
       </c>
       <c r="K2" s="98" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L2"/>
       <c r="M2"/>
@@ -4547,7 +4547,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1024" ht="25.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="7"/>
@@ -5573,7 +5573,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
@@ -6599,7 +6599,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -7642,7 +7642,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="24" customFormat="1" ht="31.05" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1024" s="24" customFormat="1" ht="30.1" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>2</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>3</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>4</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>5</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>6</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="11" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -7895,7 +7895,7 @@
       </c>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="1:1024" ht="31.05" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1024" ht="30.1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>10</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>11</v>
       </c>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="1:1024" ht="31.05" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1024" ht="30.1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>12</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>13</v>
       </c>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>14</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>15</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="77.55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="75.25" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
         <v>16</v>
       </c>
@@ -8096,10 +8096,10 @@
         <v>479</v>
       </c>
       <c r="K20" s="98" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="31.05" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="30.1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>17</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>62</v>
       </c>
       <c r="K21" s="98" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="27.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -8152,10 +8152,10 @@
         <v>66</v>
       </c>
       <c r="K22" s="98" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="37">
         <v>19</v>
       </c>
@@ -8183,10 +8183,10 @@
         <v>476</v>
       </c>
       <c r="K23" s="98" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="42">
         <v>20</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>74</v>
       </c>
       <c r="K24" s="98" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="27.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -8239,10 +8239,10 @@
         <v>78</v>
       </c>
       <c r="K25" s="98" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47">
         <v>22</v>
       </c>
@@ -8265,10 +8265,10 @@
       </c>
       <c r="I26" s="47"/>
       <c r="K26" s="98" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -8292,11 +8292,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK66"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8:M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.45" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.81640625" style="1"/>
     <col min="2" max="2" width="20.54296875" style="1"/>
@@ -10368,7 +10368,7 @@
         <v>132.91666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" ht="77.55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1024" ht="45.15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>475</v>
       </c>
       <c r="K4" s="98" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L4"/>
       <c r="M4"/>
@@ -11414,7 +11414,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" ht="62.05" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1024" ht="60.2" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -12459,7 +12459,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -13504,7 +13504,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" ht="31.05" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1024" ht="30.1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -14549,7 +14549,7 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="24" customFormat="1" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1024" s="24" customFormat="1" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>5</v>
       </c>
@@ -14582,7 +14582,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>6</v>
       </c>
@@ -14613,7 +14613,7 @@
       </c>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>8</v>
       </c>
@@ -14642,7 +14642,7 @@
       <c r="I10" s="18"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>9</v>
       </c>
@@ -14671,7 +14671,7 @@
       <c r="I11" s="18"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:1024" ht="77.55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1024" ht="75.25" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>10</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:1024" ht="77.55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1024" ht="75.25" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>11</v>
       </c>
@@ -14739,7 +14739,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" ht="77.55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1024" ht="75.25" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
         <v>12</v>
       </c>
@@ -14773,7 +14773,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:1024" ht="77.55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1024" ht="75.25" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>13</v>
       </c>
@@ -14807,7 +14807,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:1024" ht="77.55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1024" ht="75.25" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>14</v>
       </c>
@@ -14841,7 +14841,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="77.55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="75.25" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>15</v>
       </c>
@@ -14875,7 +14875,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>16</v>
       </c>
@@ -14906,7 +14906,7 @@
       </c>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>17</v>
       </c>
@@ -14937,7 +14937,7 @@
       </c>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>18</v>
       </c>
@@ -14968,7 +14968,7 @@
       </c>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>19</v>
       </c>
@@ -14999,7 +14999,7 @@
       </c>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>20</v>
       </c>
@@ -15030,7 +15030,7 @@
       </c>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>21</v>
       </c>
@@ -15061,7 +15061,7 @@
       </c>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>22</v>
       </c>
@@ -15092,7 +15092,7 @@
       </c>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>23</v>
       </c>
@@ -15121,7 +15121,7 @@
       <c r="I25" s="7"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>24</v>
       </c>
@@ -15150,7 +15150,7 @@
       <c r="I26" s="7"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>25</v>
       </c>
@@ -15181,7 +15181,7 @@
       </c>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>26</v>
       </c>
@@ -15212,7 +15212,7 @@
       </c>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -15241,7 +15241,7 @@
       <c r="I29" s="7"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:11" ht="31.05" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="30.1" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -15272,7 +15272,7 @@
       </c>
       <c r="J30" s="61"/>
     </row>
-    <row r="31" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -15301,7 +15301,7 @@
       <c r="I31" s="18"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -15330,7 +15330,7 @@
       <c r="I32" s="18"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -15361,7 +15361,7 @@
       </c>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" ht="46.55" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="45.15" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -15392,7 +15392,7 @@
       </c>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" ht="31.05" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="30.1" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -15423,7 +15423,7 @@
       </c>
       <c r="J35" s="61"/>
     </row>
-    <row r="36" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -15454,7 +15454,7 @@
       </c>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -15485,7 +15485,7 @@
       </c>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" ht="31.05" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="30.1" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -15516,7 +15516,7 @@
       </c>
       <c r="J38" s="61"/>
     </row>
-    <row r="39" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -15546,7 +15546,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -15576,7 +15576,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -15604,7 +15604,7 @@
       </c>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -15634,7 +15634,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -15664,7 +15664,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -15692,7 +15692,7 @@
       </c>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:10" ht="31.05" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="30.1" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -15722,7 +15722,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -15750,7 +15750,7 @@
       </c>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -15778,7 +15778,7 @@
       </c>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -15808,7 +15808,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -15836,7 +15836,7 @@
       </c>
       <c r="I49" s="18"/>
     </row>
-    <row r="50" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>49</v>
       </c>
@@ -15864,7 +15864,7 @@
       </c>
       <c r="I50" s="18"/>
     </row>
-    <row r="51" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>50</v>
       </c>
@@ -15894,7 +15894,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>51</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>52</v>
       </c>
@@ -15954,7 +15954,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>53</v>
       </c>
@@ -15984,7 +15984,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>54</v>
       </c>
@@ -16014,7 +16014,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>55</v>
       </c>
@@ -16044,7 +16044,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>56</v>
       </c>
@@ -16072,7 +16072,7 @@
       </c>
       <c r="I57" s="7"/>
     </row>
-    <row r="58" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>57</v>
       </c>
@@ -16100,7 +16100,7 @@
       </c>
       <c r="I58" s="7"/>
     </row>
-    <row r="59" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>58</v>
       </c>
@@ -16130,7 +16130,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="16.100000000000001" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A60" s="14">
         <v>59</v>
       </c>
@@ -16160,7 +16160,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>60</v>
       </c>
@@ -16190,7 +16190,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>61</v>
       </c>
@@ -16218,7 +16218,7 @@
       </c>
       <c r="I62" s="7"/>
     </row>
-    <row r="63" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>62</v>
       </c>
@@ -16246,7 +16246,7 @@
       </c>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="1:9" ht="15.55" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A64" s="14">
         <v>63</v>
       </c>
@@ -16274,7 +16274,7 @@
       </c>
       <c r="I64" s="63"/>
     </row>
-    <row r="65" spans="1:9" ht="31.05" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="30.1" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>64</v>
       </c>
@@ -16304,7 +16304,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A66" s="42">
         <v>65</v>
       </c>
@@ -16346,7 +16346,7 @@
       <selection activeCell="C34" sqref="C34:C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.45" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.26953125" style="1"/>
     <col min="2" max="2" width="17.7265625" style="1"/>
@@ -16385,7 +16385,7 @@
       <c r="H2"/>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:9" ht="46.55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="45.15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -16423,7 +16423,7 @@
       <c r="H4"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A5" s="61">
         <v>1</v>
       </c>
@@ -16451,7 +16451,7 @@
       </c>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A6" s="61">
         <v>2</v>
       </c>
@@ -16479,7 +16479,7 @@
       </c>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A7" s="61">
         <v>3</v>
       </c>
@@ -16507,7 +16507,7 @@
       </c>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A8" s="61">
         <v>4</v>
       </c>
@@ -16535,7 +16535,7 @@
       </c>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A9" s="61">
         <v>5</v>
       </c>
@@ -16565,7 +16565,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A10" s="61">
         <v>6</v>
       </c>
@@ -16592,7 +16592,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A11" s="61">
         <v>7</v>
       </c>
@@ -16619,7 +16619,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A12" s="61">
         <v>8</v>
       </c>
@@ -16646,7 +16646,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A13" s="61">
         <v>9</v>
       </c>
@@ -16687,7 +16687,7 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.45" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.1796875" style="1"/>
     <col min="2" max="2" width="20.1796875" style="1"/>
@@ -16726,7 +16726,7 @@
       <c r="H2"/>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:10" ht="46.55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="45.15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -16753,7 +16753,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -16767,7 +16767,7 @@
       <c r="H4"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -16778,7 +16778,7 @@
       <c r="H5" s="73"/>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A6" s="61">
         <v>1</v>
       </c>
@@ -16808,7 +16808,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="31.05" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="30.1" x14ac:dyDescent="0.25">
       <c r="A7" s="61">
         <v>2</v>
       </c>
@@ -16838,7 +16838,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="46.55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="45.15" x14ac:dyDescent="0.25">
       <c r="A8" s="61">
         <v>3</v>
       </c>
@@ -16868,7 +16868,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="62.05" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="60.2" x14ac:dyDescent="0.25">
       <c r="A9" s="61">
         <v>4</v>
       </c>
@@ -16898,7 +16898,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="31.05" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="30.1" x14ac:dyDescent="0.25">
       <c r="A10" s="61">
         <v>5</v>
       </c>
@@ -16928,7 +16928,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="52.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61">
         <v>6</v>
       </c>
@@ -16958,7 +16958,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="46.55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="45.15" x14ac:dyDescent="0.25">
       <c r="A12" s="61">
         <v>7</v>
       </c>
@@ -16988,7 +16988,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="62.05" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="60.2" x14ac:dyDescent="0.25">
       <c r="A13" s="61">
         <v>8</v>
       </c>
@@ -17018,7 +17018,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="46.55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="45.15" x14ac:dyDescent="0.25">
       <c r="A14" s="61">
         <v>9</v>
       </c>
@@ -17048,7 +17048,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="62.05" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="60.2" x14ac:dyDescent="0.25">
       <c r="A15" s="61">
         <v>10</v>
       </c>
@@ -17108,7 +17108,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="62.05" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="60.2" x14ac:dyDescent="0.25">
       <c r="A17" s="61">
         <v>12</v>
       </c>
@@ -17138,7 +17138,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="62.05" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="60.2" x14ac:dyDescent="0.25">
       <c r="A18" s="61">
         <v>13</v>
       </c>
@@ -17168,7 +17168,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="77.55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="75.25" x14ac:dyDescent="0.25">
       <c r="A19" s="61">
         <v>14</v>
       </c>
@@ -17198,7 +17198,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="46.55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="45.15" x14ac:dyDescent="0.25">
       <c r="A20" s="61">
         <v>15</v>
       </c>
@@ -17228,7 +17228,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="62.05" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="60.2" x14ac:dyDescent="0.25">
       <c r="A21" s="61">
         <v>16</v>
       </c>
@@ -17258,7 +17258,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="31.05" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="30.1" x14ac:dyDescent="0.25">
       <c r="A22" s="61">
         <v>17</v>
       </c>
@@ -17288,7 +17288,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>18</v>
       </c>
@@ -17316,7 +17316,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:10" ht="77.55" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="75.25" x14ac:dyDescent="0.25">
       <c r="A24" s="61">
         <v>19</v>
       </c>
@@ -17345,12 +17345,12 @@
         <v>370</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="28.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="28.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="102">
         <v>20</v>
       </c>
       <c r="B25" s="88" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C25" s="89" t="s">
         <v>371</v>
@@ -17370,7 +17370,7 @@
         <v>373</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -17383,11 +17383,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.45" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.453125" style="1"/>
     <col min="2" max="2" width="14.26953125" style="1"/>
@@ -17425,7 +17425,7 @@
       <c r="I2"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:11" ht="46.55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45.15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -17455,7 +17455,7 @@
         <v>475</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -17469,7 +17469,7 @@
       <c r="H4"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A5" s="70">
         <v>1</v>
       </c>
@@ -17497,7 +17497,7 @@
       </c>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:11" ht="31.05" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="30.1" x14ac:dyDescent="0.25">
       <c r="A6" s="70">
         <v>2</v>
       </c>
@@ -17525,7 +17525,7 @@
       </c>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A7" s="70">
         <v>3</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A8" s="70">
         <v>4</v>
       </c>
@@ -17583,7 +17583,7 @@
       </c>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A9" s="70">
         <v>5</v>
       </c>
@@ -17611,7 +17611,7 @@
       </c>
       <c r="I9"/>
     </row>
-    <row r="10" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A10" s="70">
         <v>6</v>
       </c>
@@ -17639,7 +17639,7 @@
       </c>
       <c r="I10"/>
     </row>
-    <row r="11" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A11" s="70">
         <v>7</v>
       </c>
@@ -17667,7 +17667,7 @@
       </c>
       <c r="I11"/>
     </row>
-    <row r="12" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A12" s="70">
         <v>8</v>
       </c>
@@ -17695,7 +17695,7 @@
       </c>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A13" s="70">
         <v>9</v>
       </c>
@@ -17723,7 +17723,7 @@
       </c>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:11" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="24.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70">
         <v>10</v>
       </c>
@@ -17751,7 +17751,7 @@
       </c>
       <c r="I14"/>
     </row>
-    <row r="15" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A15" s="70">
         <v>11</v>
       </c>
@@ -17779,7 +17779,7 @@
       </c>
       <c r="I15"/>
     </row>
-    <row r="16" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A16" s="70">
         <v>12</v>
       </c>
@@ -17807,7 +17807,7 @@
       </c>
       <c r="I16"/>
     </row>
-    <row r="17" spans="1:11" ht="31.05" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="30.1" x14ac:dyDescent="0.25">
       <c r="A17" s="61">
         <v>13</v>
       </c>
@@ -17835,7 +17835,7 @@
       </c>
       <c r="I17"/>
     </row>
-    <row r="18" spans="1:11" ht="31.05" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="30.1" x14ac:dyDescent="0.25">
       <c r="A18" s="61">
         <v>14</v>
       </c>
@@ -17863,7 +17863,7 @@
       </c>
       <c r="I18"/>
     </row>
-    <row r="19" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="61">
         <v>15</v>
       </c>
@@ -17891,7 +17891,7 @@
       </c>
       <c r="I19"/>
     </row>
-    <row r="20" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A20" s="61">
         <v>16</v>
       </c>
@@ -17919,7 +17919,7 @@
       </c>
       <c r="I20"/>
     </row>
-    <row r="21" spans="1:11" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A21" s="61">
         <v>17</v>
       </c>
@@ -17947,7 +17947,7 @@
       </c>
       <c r="I21"/>
     </row>
-    <row r="22" spans="1:11" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="93.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="75">
         <v>18</v>
       </c>
@@ -17973,7 +17973,7 @@
         <v>476</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -17989,11 +17989,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.45" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.26953125" style="1"/>
     <col min="2" max="2" width="16.1796875" style="1"/>
@@ -18029,7 +18029,7 @@
       <c r="I2"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:10" ht="31.05" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="30.1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -18068,7 +18068,7 @@
       <c r="H4"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A5" s="91">
         <v>1</v>
       </c>
@@ -18096,7 +18096,7 @@
       </c>
       <c r="I5" s="61"/>
     </row>
-    <row r="6" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A6" s="91">
         <v>2</v>
       </c>
@@ -18124,7 +18124,7 @@
       </c>
       <c r="I6" s="61"/>
     </row>
-    <row r="7" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A7" s="91">
         <v>3</v>
       </c>
@@ -18152,7 +18152,7 @@
       </c>
       <c r="I7" s="61"/>
     </row>
-    <row r="8" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A8" s="91">
         <v>4</v>
       </c>
@@ -18180,7 +18180,7 @@
       </c>
       <c r="I8" s="61"/>
     </row>
-    <row r="9" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A9" s="91">
         <v>5</v>
       </c>
@@ -18208,7 +18208,7 @@
       </c>
       <c r="I9" s="61"/>
     </row>
-    <row r="10" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A10" s="91">
         <v>6</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A11" s="91">
         <v>7</v>
       </c>
@@ -18268,7 +18268,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A12" s="91">
         <v>8</v>
       </c>
@@ -18298,7 +18298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A13" s="91">
         <v>9</v>
       </c>
@@ -18326,7 +18326,7 @@
       </c>
       <c r="I13" s="61"/>
     </row>
-    <row r="14" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A14" s="91">
         <v>10</v>
       </c>
@@ -18356,7 +18356,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A15" s="91">
         <v>11</v>
       </c>
@@ -18412,7 +18412,7 @@
       </c>
       <c r="I16" s="61"/>
     </row>
-    <row r="17" spans="1:9" ht="31.05" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30.1" x14ac:dyDescent="0.25">
       <c r="A17" s="91">
         <v>13</v>
       </c>
@@ -18440,7 +18440,7 @@
       </c>
       <c r="I17" s="61"/>
     </row>
-    <row r="18" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A18" s="91">
         <v>14</v>
       </c>
@@ -18470,7 +18470,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A19" s="91">
         <v>15</v>
       </c>
@@ -18500,7 +18500,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A20" s="91">
         <v>16</v>
       </c>
@@ -18542,7 +18542,7 @@
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.45" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.453125" style="1"/>
     <col min="2" max="2" width="14.81640625" style="1"/>
@@ -20608,7 +20608,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" ht="46.55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1024" ht="45.15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -20635,7 +20635,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="98" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -22678,7 +22678,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -23704,7 +23704,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A6" s="61">
         <v>1</v>
       </c>
@@ -24745,7 +24745,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A7" s="61">
         <v>2</v>
       </c>
@@ -25788,7 +25788,7 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A8" s="61">
         <v>3</v>
       </c>
@@ -26831,7 +26831,7 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A9" s="61">
         <v>4</v>
       </c>
@@ -27874,7 +27874,7 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A10" s="61">
         <v>5</v>
       </c>
@@ -28917,7 +28917,7 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A11" s="61">
         <v>6</v>
       </c>
@@ -29958,7 +29958,7 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" ht="31.05" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1024" ht="30.1" x14ac:dyDescent="0.25">
       <c r="A12" s="61">
         <v>7</v>
       </c>
@@ -30999,7 +30999,7 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A13" s="61">
         <v>8</v>
       </c>
@@ -32040,7 +32040,7 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A14" s="61">
         <v>9</v>
       </c>
@@ -33083,7 +33083,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A15" s="61">
         <v>10</v>
       </c>
@@ -35169,7 +35169,7 @@
       <c r="AMI16"/>
       <c r="AMJ16"/>
     </row>
-    <row r="17" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A17" s="61">
         <v>12</v>
       </c>
@@ -36212,7 +36212,7 @@
       <c r="AMI17"/>
       <c r="AMJ17"/>
     </row>
-    <row r="18" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A18" s="61">
         <v>13</v>
       </c>
@@ -37255,7 +37255,7 @@
       <c r="AMI18"/>
       <c r="AMJ18"/>
     </row>
-    <row r="19" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A19" s="61">
         <v>14</v>
       </c>
@@ -38298,7 +38298,7 @@
       <c r="AMI19"/>
       <c r="AMJ19"/>
     </row>
-    <row r="20" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A20" s="61">
         <v>15</v>
       </c>
@@ -39341,7 +39341,7 @@
       <c r="AMI20"/>
       <c r="AMJ20"/>
     </row>
-    <row r="21" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A21" s="61">
         <v>16</v>
       </c>
@@ -40384,7 +40384,7 @@
       <c r="AMI21"/>
       <c r="AMJ21"/>
     </row>
-    <row r="22" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A22" s="61">
         <v>17</v>
       </c>
@@ -41427,7 +41427,7 @@
       <c r="AMI22"/>
       <c r="AMJ22"/>
     </row>
-    <row r="23" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A23" s="61">
         <v>18</v>
       </c>
@@ -42470,7 +42470,7 @@
       <c r="AMI23"/>
       <c r="AMJ23"/>
     </row>
-    <row r="24" spans="1:1024" s="13" customFormat="1" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1024" s="13" customFormat="1" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A24" s="61">
         <v>19</v>
       </c>
@@ -42498,7 +42498,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="25" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A25" s="61">
         <v>20</v>
       </c>
@@ -42526,7 +42526,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="26" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A26" s="61">
         <v>21</v>
       </c>
@@ -42554,7 +42554,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="27" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A27" s="61">
         <v>22</v>
       </c>
@@ -42582,7 +42582,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="28" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A28" s="61">
         <v>23</v>
       </c>
@@ -42610,7 +42610,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="29" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A29" s="61">
         <v>24</v>
       </c>
@@ -42638,7 +42638,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:1024" ht="15.55" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1024" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A30" s="61">
         <v>25</v>
       </c>
@@ -42664,7 +42664,7 @@
       <c r="H30" s="72"/>
       <c r="I30"/>
     </row>
-    <row r="31" spans="1:1024" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1024" ht="25.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="61">
         <v>26</v>
       </c>
@@ -42689,7 +42689,7 @@
         <v>474</v>
       </c>
       <c r="J31" s="98" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
